--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1456536.608943963</v>
+        <v>1454649.027427561</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>548729.1089394115</v>
+        <v>192229.6412117105</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>101.7403533297717</v>
       </c>
       <c r="G2" t="n">
-        <v>109.9948971292145</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>7.511689643934864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>84.41894673989141</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>154.8038710909323</v>
       </c>
     </row>
     <row r="6">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>15.91242278797893</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>42.55016670343949</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>74.03158105159699</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>71.38614710919146</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620681</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>119.9099223396139</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211451</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>69.67056468630049</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>155.5554764474074</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>188.4590648403947</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>262.7384857389904</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>66.90445977359178</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>37.63559668982773</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>88.52416382797675</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>146.2787299119458</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002179</v>
+        <v>12.78917898910535</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.5051581858146</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
@@ -2956,19 +2956,19 @@
         <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>78.22041541355208</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224537</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.01781586839</v>
+        <v>728.140799593524</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.01781586839</v>
+        <v>728.140799593524</v>
       </c>
       <c r="E2" t="n">
-        <v>903.2295632701455</v>
+        <v>728.140799593524</v>
       </c>
       <c r="F2" t="n">
-        <v>492.2436584805379</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4346,10 +4346,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,37 +4413,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>720.5414189095305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>720.5414189095305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>493.2332315781322</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>204.0596212327002</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2611.877427644595</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2393.242760616658</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2139.480975254749</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2139.480975254749</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2139.480975254749</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.480975254749</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="6">
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4747,25 +4747,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951864</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>496.6346048471284</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>110.8463522488842</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,7 +4805,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.607930856721</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.4036268380754</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>211.4036268380754</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>211.4036268380754</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>211.4036268380754</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>211.4036268380754</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>626.6048457578428</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>626.6048457578428</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380754</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380754</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380754</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1189.663494389109</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1509.998813918811</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N12" t="n">
-        <v>1854.519469556429</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2198.113937389053</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925222</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471189</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1377.795136881525</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1154.00972167103</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U13" t="n">
-        <v>1154.00972167103</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="V13" t="n">
-        <v>1154.00972167103</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="W13" t="n">
-        <v>864.5925516340697</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>636.6030007360523</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8104215925222</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>237.1439506606954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>648.0342195052081</v>
+        <v>348.58978795107</v>
       </c>
       <c r="L15" t="n">
-        <v>1261.931289262097</v>
+        <v>578.5528938194192</v>
       </c>
       <c r="M15" t="n">
-        <v>2030.299435654558</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N15" t="n">
-        <v>2374.820091292176</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1428.541962793963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1228.621952709515</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1228.621952709515</v>
       </c>
       <c r="U16" t="n">
-        <v>1341.789526671632</v>
+        <v>939.4933139230729</v>
       </c>
       <c r="V16" t="n">
-        <v>1087.105038465745</v>
+        <v>939.4933139230729</v>
       </c>
       <c r="W16" t="n">
-        <v>797.6878684287846</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="X16" t="n">
-        <v>797.6878684287846</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y16" t="n">
-        <v>576.8952892852544</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.893885873787</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1308.553578799928</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1019.424940013486</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="V19" t="n">
-        <v>764.7404518075996</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="W19" t="n">
-        <v>475.3232817706389</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3337308726216</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>435.8912381133354</v>
       </c>
       <c r="M21" t="n">
-        <v>1954.109744073479</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1460.900516325753</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1260.980506241305</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1037.195091030811</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>748.0664522443694</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>493.3819640384826</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>493.3819640384826</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>164.7973538578533</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805457</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M24" t="n">
-        <v>1288.32563221405</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N24" t="n">
-        <v>1423.179110240431</v>
+        <v>1606.390201511077</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.642871543091</v>
+        <v>1855.143615595039</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1409.497923256916</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1185.712508046422</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U25" t="n">
-        <v>896.5838692599799</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>896.5838692599799</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,31 +6212,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6248,7 +6248,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578666</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022017</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1814.179973500514</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1485.997907942645</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1262.21249273215</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>973.0838539457086</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>718.3993657398219</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>428.9821957028614</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028614</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028614</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M30" t="n">
-        <v>1819.161927111988</v>
+        <v>744.368461879264</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215249</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749888</v>
+        <v>326.3571123076822</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>232.0013381767172</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1791.966918252997</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1558.599144747926</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1359.67552182341</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1126.01921706782</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>953.7905314511738</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>788.7588175890145</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6777,19 +6777,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O33" t="n">
         <v>1797.533454227377</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110832</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010307</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028583</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2175.902373868268</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.545851481619</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,10 +7090,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254961</v>
@@ -7108,10 +7108,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,13 +7196,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>993.1218759632263</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,13 +7345,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,34 +7394,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M42" t="n">
-        <v>417.5524109899876</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.963989254138</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O42" t="n">
-        <v>1891.427750556798</v>
+        <v>2246.748416482984</v>
       </c>
       <c r="P42" t="n">
-        <v>2411.728372292545</v>
+        <v>2429.391894096335</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,28 +7807,28 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>254.9038403174322</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9021,13 +9021,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>267.5573464534158</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10905,16 +10905,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>426.9903114432828</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>208.2541546422738</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>78.01088764398939</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>158.8051956154459</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>40.29378771749231</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>130.68187595117</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>33.0884962179945</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>23.49886665958689</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>112.9275204083455</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>72.32875571396505</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>109.3966461556265</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>79.43092547709139</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338537</v>
+        <v>185.1316309944978</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.12356536756562</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>13.01029060446001</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.689582056016661e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938469.7433705017</v>
+        <v>938469.7433705018</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938469.7433705017</v>
+        <v>938469.7433705016</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938469.7433705018</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="9">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114798</v>
@@ -26326,22 +26326,22 @@
         <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="K2" t="n">
-        <v>447504.3510797972</v>
+        <v>447504.3510797971</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="M2" t="n">
         <v>451572.9734253562</v>
@@ -26350,7 +26350,7 @@
         <v>451572.9734253562</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="P2" t="n">
         <v>451572.9734253563</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284549</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.793690575957</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758902</v>
+        <v>787.7936905759224</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905759235</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.793690575881</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189642</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189637</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360313.1230332172</v>
+        <v>-360313.1230332171</v>
       </c>
       <c r="C6" t="n">
-        <v>229654.7561813274</v>
+        <v>229654.7561813275</v>
       </c>
       <c r="D6" t="n">
-        <v>229654.7561813273</v>
+        <v>229654.7561813275</v>
       </c>
       <c r="E6" t="n">
-        <v>-187803.1904047088</v>
+        <v>-187900.6495306809</v>
       </c>
       <c r="F6" t="n">
-        <v>337356.8460721873</v>
+        <v>337259.3869462151</v>
       </c>
       <c r="G6" t="n">
-        <v>337356.8460721871</v>
+        <v>337259.386946215</v>
       </c>
       <c r="H6" t="n">
-        <v>337356.8460721872</v>
+        <v>337259.386946215</v>
       </c>
       <c r="I6" t="n">
-        <v>337356.8460721873</v>
+        <v>337259.3869462149</v>
       </c>
       <c r="J6" t="n">
-        <v>160933.6268795943</v>
+        <v>160836.1677536218</v>
       </c>
       <c r="K6" t="n">
-        <v>287761.1210419565</v>
+        <v>287742.627304022</v>
       </c>
       <c r="L6" t="n">
         <v>320308.3798725676</v>
@@ -26555,13 +26555,13 @@
         <v>195850.2714395974</v>
       </c>
       <c r="N6" t="n">
-        <v>330651.2866734343</v>
+        <v>330651.2866734344</v>
       </c>
       <c r="O6" t="n">
-        <v>330651.2866734344</v>
+        <v>330651.2866734345</v>
       </c>
       <c r="P6" t="n">
-        <v>286488.681370589</v>
+        <v>286488.6813705889</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,40 +26741,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108359</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>305.1356924119398</v>
       </c>
       <c r="G2" t="n">
-        <v>303.7892728915805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>5.940996995934682</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>139.153502336223</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>89.9967660690801</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>231.4340675651213</v>
       </c>
     </row>
     <row r="6">
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>236.2252205358491</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>364.3258790382719</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>253.7206774185379</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>11.42376369151714</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>153.6489583488928</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.927418225022848e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31133,7 +31133,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31142,13 +31142,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>177.5954266578332</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31376,13 +31376,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.153359660201</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,13 +31856,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,22 +32075,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0868531448534</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>127.2880165989361</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>267.7425307447074</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,25 +32461,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041481</v>
       </c>
       <c r="L20" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>109.809132105758</v>
       </c>
       <c r="M21" t="n">
-        <v>348.9381740704318</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>282.8757401562974</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,31 +32874,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -33032,28 +33032,28 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>324.2531564133932</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,31 +33111,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961222</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,22 +33254,22 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>212.6272478467031</v>
+        <v>97.83125759689619</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
@@ -33278,19 +33278,19 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961222</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,13 +33491,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33509,13 +33509,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>267.7425307447073</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33591,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33603,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,34 +33728,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>186.8718012968582</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33895,37 +33895,37 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33977,7 +33977,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -33986,22 +33986,22 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34220,25 +34220,25 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>143.8894692628929</v>
+        <v>115.3101420900746</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34466,7 +34466,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8615014901183</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>520.439325183786</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,13 +35504,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>120.9294329031019</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>141.3402618185955</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>253.9118146371557</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>500.0284962682924</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>342.095097629343</v>
       </c>
       <c r="M21" t="n">
-        <v>672.5092038984134</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
-        <v>136.2156343700825</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>467.3641013819043</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197786</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>508.7415176390001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>536.1982776746847</v>
+        <v>421.4022874248778</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -36996,7 +36996,7 @@
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>519.0086055769924</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,7 +37233,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629105</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>256.9673149466858</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,7 +37470,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>284.8562775212645</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.9849829127205</v>
+        <v>185.4056557399022</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,16 +37947,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>66.12012072025549</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
@@ -38114,7 +38114,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
